--- a/Q3andQ4/Classified result3.xlsx
+++ b/Q3andQ4/Classified result3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="6675" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="AB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC1">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="II1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ1">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="KO1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="KP1">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="UD1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="UE1">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="VZ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="WA1">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="WE1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="WF1">
         <v>2</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="XI1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="XJ1">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="AGL1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AGM1">
         <v>2</v>
@@ -3143,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="AIS1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AIT1">
         <v>2</v>
